--- a/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
@@ -28,10 +28,10 @@
     <t>ImageId</t>
   </si>
   <si>
-    <t>アーマー</t>
+    <t>ボロアーマー</t>
   </si>
   <si>
-    <t>いいアーマー</t>
+    <t>アーマー</t>
   </si>
 </sst>
 </file>
@@ -111,10 +111,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" s="1">
         <v>0.0</v>
@@ -128,10 +128,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>

--- a/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,87 @@
   </si>
   <si>
     <t>アーマー</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>ふしぎなふく</t>
   </si>
 </sst>
 </file>
@@ -131,13 +212,472 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="1">
         <v>5.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.0</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
@@ -28,88 +28,88 @@
     <t>ImageId</t>
   </si>
   <si>
-    <t>ボロアーマー</t>
-  </si>
-  <si>
-    <t>アーマー</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>B16</t>
-  </si>
-  <si>
-    <t>B17</t>
-  </si>
-  <si>
-    <t>B18</t>
-  </si>
-  <si>
-    <t>B19</t>
-  </si>
-  <si>
-    <t>B20</t>
-  </si>
-  <si>
-    <t>B21</t>
-  </si>
-  <si>
-    <t>B22</t>
-  </si>
-  <si>
-    <t>B23</t>
-  </si>
-  <si>
-    <t>B24</t>
-  </si>
-  <si>
-    <t>B25</t>
-  </si>
-  <si>
-    <t>B26</t>
+    <t>ボロプレート</t>
+  </si>
+  <si>
+    <t>プレート</t>
+  </si>
+  <si>
+    <t>レザープレート</t>
+  </si>
+  <si>
+    <t>ノーマルアーマー</t>
+  </si>
+  <si>
+    <t>ボーンアーマー</t>
+  </si>
+  <si>
+    <t>スチールアーマー</t>
+  </si>
+  <si>
+    <t>ハイプレート</t>
+  </si>
+  <si>
+    <t>メタルプレート</t>
+  </si>
+  <si>
+    <t>メタルアーマー</t>
+  </si>
+  <si>
+    <t>ウォープレート</t>
+  </si>
+  <si>
+    <t>ウォーアーマー</t>
+  </si>
+  <si>
+    <t>ウォーボーンプレート</t>
+  </si>
+  <si>
+    <t>ウォーメタルアーマー</t>
+  </si>
+  <si>
+    <t>レアメタルアーマー</t>
+  </si>
+  <si>
+    <t>クイーンプレート</t>
+  </si>
+  <si>
+    <t>クイーンアーマー</t>
+  </si>
+  <si>
+    <t>キングプレート</t>
+  </si>
+  <si>
+    <t>キングアーマー</t>
+  </si>
+  <si>
+    <t>ジャックプレート</t>
+  </si>
+  <si>
+    <t>ジャックアーマー</t>
+  </si>
+  <si>
+    <t>ドラゴンプレート</t>
+  </si>
+  <si>
+    <t>ワイバーンアーマー</t>
+  </si>
+  <si>
+    <t>サイコアーマー</t>
+  </si>
+  <si>
+    <t>マッドプレート</t>
+  </si>
+  <si>
+    <t>ホーリーアーマー</t>
+  </si>
+  <si>
+    <t>エビルアーマー</t>
+  </si>
+  <si>
+    <t>ヘレシープレート</t>
+  </si>
+  <si>
+    <t>セイクリッドアーマー</t>
   </si>
   <si>
     <t>ふしぎなふく</t>
@@ -169,6 +169,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="28.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -218,7 +221,7 @@
         <v>5.0</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">

--- a/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/ArmorData.xlsx
@@ -201,7 +201,7 @@
         <v>2.0</v>
       </c>
       <c r="D2" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" s="1">
         <v>0.0</v>
@@ -218,7 +218,7 @@
         <v>3.0</v>
       </c>
       <c r="D3" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E3" s="1">
         <v>0.0</v>
@@ -235,7 +235,7 @@
         <v>4.0</v>
       </c>
       <c r="D4" s="1">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -252,7 +252,7 @@
         <v>5.0</v>
       </c>
       <c r="D5" s="1">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -269,7 +269,7 @@
         <v>4.0</v>
       </c>
       <c r="D6" s="1">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" s="1">
         <v>0.0</v>
@@ -286,7 +286,7 @@
         <v>7.0</v>
       </c>
       <c r="D7" s="1">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
@@ -303,7 +303,7 @@
         <v>12.0</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="E8" s="1">
         <v>0.0</v>
@@ -320,7 +320,7 @@
         <v>15.0</v>
       </c>
       <c r="D9" s="1">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="E9" s="1">
         <v>0.0</v>
@@ -337,7 +337,7 @@
         <v>18.0</v>
       </c>
       <c r="D10" s="1">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" s="1">
         <v>0.0</v>
@@ -354,7 +354,7 @@
         <v>19.0</v>
       </c>
       <c r="D11" s="1">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -371,7 +371,7 @@
         <v>24.0</v>
       </c>
       <c r="D12" s="1">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -388,7 +388,7 @@
         <v>32.0</v>
       </c>
       <c r="D13" s="1">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -405,7 +405,7 @@
         <v>33.0</v>
       </c>
       <c r="D14" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -422,7 +422,7 @@
         <v>35.0</v>
       </c>
       <c r="D15" s="1">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="E15" s="1">
         <v>0.0</v>
@@ -439,7 +439,7 @@
         <v>36.0</v>
       </c>
       <c r="D16" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -456,7 +456,7 @@
         <v>40.0</v>
       </c>
       <c r="D17" s="1">
-        <v>23.0</v>
+        <v>46.0</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
@@ -473,7 +473,7 @@
         <v>42.0</v>
       </c>
       <c r="D18" s="1">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -490,7 +490,7 @@
         <v>41.0</v>
       </c>
       <c r="D19" s="1">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="E19" s="1">
         <v>0.0</v>
@@ -507,7 +507,7 @@
         <v>45.0</v>
       </c>
       <c r="D20" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" s="1">
         <v>0.0</v>
@@ -524,7 +524,7 @@
         <v>46.0</v>
       </c>
       <c r="D21" s="1">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="E21" s="1">
         <v>0.0</v>
@@ -541,7 +541,7 @@
         <v>50.0</v>
       </c>
       <c r="D22" s="1">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="E22" s="1">
         <v>0.0</v>
@@ -558,7 +558,7 @@
         <v>48.0</v>
       </c>
       <c r="D23" s="1">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="E23" s="1">
         <v>0.0</v>
@@ -575,7 +575,7 @@
         <v>53.0</v>
       </c>
       <c r="D24" s="1">
-        <v>18.0</v>
+        <v>36.0</v>
       </c>
       <c r="E24" s="1">
         <v>0.0</v>
@@ -592,7 +592,7 @@
         <v>56.0</v>
       </c>
       <c r="D25" s="1">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="E25" s="1">
         <v>0.0</v>
@@ -609,7 +609,7 @@
         <v>58.0</v>
       </c>
       <c r="D26" s="1">
-        <v>28.0</v>
+        <v>56.0</v>
       </c>
       <c r="E26" s="1">
         <v>0.0</v>
@@ -626,7 +626,7 @@
         <v>53.0</v>
       </c>
       <c r="D27" s="1">
-        <v>37.0</v>
+        <v>74.0</v>
       </c>
       <c r="E27" s="1">
         <v>0.0</v>
@@ -643,7 +643,7 @@
         <v>60.0</v>
       </c>
       <c r="D28" s="1">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="E28" s="1">
         <v>0.0</v>
@@ -660,7 +660,7 @@
         <v>62.0</v>
       </c>
       <c r="D29" s="1">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="E29" s="1">
         <v>0.0</v>
